--- a/設計書/NewsScrapingforSlack.xlsx
+++ b/設計書/NewsScrapingforSlack.xlsx
@@ -9,13 +9,17 @@
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
     <sheet name="処理概要込" sheetId="3" r:id="rId2"/>
+    <sheet name="メソッド一覧" sheetId="8" r:id="rId3"/>
+    <sheet name="テーブル定義" sheetId="6" r:id="rId4"/>
+    <sheet name="A.取得処理" sheetId="5" r:id="rId5"/>
+    <sheet name="B.問合せ処理" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="205">
   <si>
     <t>slack</t>
     <phoneticPr fontId="1"/>
@@ -168,6 +172,1169 @@
   </si>
   <si>
     <t>web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A.取得処理</t>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B.問い合わせ処理</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行トリガ</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ生成</t>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果加工</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果表示(slack)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド受信(slack)</t>
+    <rPh sb="4" eb="6">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド判定</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ表示(slack)</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果取得(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定読み込み(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事取得</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事加工</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事保存(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果記録</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得結果表示(slack)</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクレイピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存用、表示用</t>
+    <rPh sb="0" eb="3">
+      <t>ホゾンヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ使用検討</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log or table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得結果記録</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（常駐スクリプト）</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">slackbot </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジューラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>herokuサーバに設定したheroku schedulerを使用</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日に1回実行 (slackbot通知は処理時のみログインすればよい</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一次ソーステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローリング処理</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得値</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>is_title_text</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>is_news_link_url</t>
+  </si>
+  <si>
+    <t>is_news_tag_category1</t>
+  </si>
+  <si>
+    <t>is_news_tag_category2</t>
+  </si>
+  <si>
+    <t>is_news_tag_category3</t>
+  </si>
+  <si>
+    <t>is_news_tag_category4</t>
+  </si>
+  <si>
+    <t>is_news_tag_category5</t>
+  </si>
+  <si>
+    <t>is_news_type1</t>
+  </si>
+  <si>
+    <t>is_news_type2</t>
+  </si>
+  <si>
+    <t>is_news_type3</t>
+  </si>
+  <si>
+    <t>is_news_type4</t>
+  </si>
+  <si>
+    <t>is_first_source_site_id</t>
+  </si>
+  <si>
+    <t>is_second_source_site_id</t>
+  </si>
+  <si>
+    <t>is_news_thumbnail_filename</t>
+  </si>
+  <si>
+    <t>news_id</t>
+  </si>
+  <si>
+    <t>title_text</t>
+  </si>
+  <si>
+    <t>news_link_url</t>
+  </si>
+  <si>
+    <t>news_tag_category1</t>
+  </si>
+  <si>
+    <t>news_tag_category2</t>
+  </si>
+  <si>
+    <t>news_tag_category3</t>
+  </si>
+  <si>
+    <t>news_tag_category4</t>
+  </si>
+  <si>
+    <t>news_tag_category5</t>
+  </si>
+  <si>
+    <t>news_type1</t>
+  </si>
+  <si>
+    <t>news_type2</t>
+  </si>
+  <si>
+    <t>news_type3</t>
+  </si>
+  <si>
+    <t>news_type4</t>
+  </si>
+  <si>
+    <t>first_source_site_id</t>
+  </si>
+  <si>
+    <t>second_source_site_id</t>
+  </si>
+  <si>
+    <t>post_date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>get_date</t>
+  </si>
+  <si>
+    <t>terms_id</t>
+  </si>
+  <si>
+    <t>terms_title</t>
+  </si>
+  <si>
+    <t>term_tag_category1</t>
+  </si>
+  <si>
+    <t>term_tag_category2</t>
+  </si>
+  <si>
+    <t>term_type1</t>
+  </si>
+  <si>
+    <t>term_type2</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>site_title</t>
+  </si>
+  <si>
+    <t>site_url</t>
+  </si>
+  <si>
+    <t>スキーマ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理テーブル名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first_source_relation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RDBMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewsScrapingforSlack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトID毎に行を追加。
+記事メインテーブルに入る値を定義する。</t>
+    <rPh sb="5" eb="6">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事付与情報テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_read</t>
+  </si>
+  <si>
+    <t>hba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_notice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事ID</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既読フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>キドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知済フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト定義テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web_site_infomation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトID毎に行を追加。
+取得元ウェブサイトの基本情報を保持する。</t>
+    <rPh sb="5" eb="6">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知条件テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notice_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動通知、検索範囲に関する情報を設定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件ID</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件名</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別1-B</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別1-A</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別2-A</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別2-B</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動付与</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>source_site_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別1-C</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別1-D</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可変長にしたい</t>
+    <rPh sb="0" eb="3">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別1-E</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別2-C</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種別2-D</t>
+    <rPh sb="0" eb="2">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得元サイトID(二次ソース)</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得元サイトID(一次ソース)</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイル保存先パス</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>news_thumbnail_path</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事投稿日</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事取得日</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成時に手動で付与</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事URL</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事URL有無</t>
+  </si>
+  <si>
+    <t>種別1-A有無</t>
+  </si>
+  <si>
+    <t>種別1-B有無</t>
+  </si>
+  <si>
+    <t>種別1-C有無</t>
+  </si>
+  <si>
+    <t>種別1-D有無</t>
+  </si>
+  <si>
+    <t>種別1-E有無</t>
+  </si>
+  <si>
+    <t>種別2-A有無</t>
+  </si>
+  <si>
+    <t>種別2-B有無</t>
+  </si>
+  <si>
+    <t>種別2-C有無</t>
+  </si>
+  <si>
+    <t>種別2-D有無</t>
+  </si>
+  <si>
+    <t>取得元サイトID(一次ソース)有無</t>
+  </si>
+  <si>
+    <t>取得元サイトID(二次ソース)有無</t>
+  </si>
+  <si>
+    <t>サムネイル保存先パス有無</t>
+  </si>
+  <si>
+    <t>記事情報を保存。</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各記事の操作状態を保存する。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得有無</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索有無</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定期実行時にスクレイピング範囲に含めるか</t>
+    <rPh sb="0" eb="2">
+      <t>テイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト定義テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[サイト定義テーブル] を参照し、スクレイピングサイトの情報を取得する</t>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したサイトID分以下の処理を実施する</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[キー]に応じて記事を取得</t>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事メインテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getScrapingSetting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示用/処理用/DB用</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショリヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,7 +1342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +1358,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +1399,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -416,120 +1610,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T20"/>
+  <dimension ref="B2:Q20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -860,340 +2157,340 @@
   <sheetData>
     <row r="2" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="28" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="O5" s="25" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="O5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="15"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="15"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="8"/>
+      <c r="P7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="17"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="17"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="17"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="17"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="17"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="17"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="23"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="11"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="17"/>
-      <c r="O12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="11"/>
+      <c r="O12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="17"/>
-      <c r="O13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="24" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="15"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1217,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T20"/>
+  <dimension ref="B2:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1235,7 +2532,7 @@
     <col min="9" max="9" width="2.6328125" customWidth="1"/>
     <col min="10" max="10" width="20.6328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="2.6328125" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" style="36" customWidth="1"/>
     <col min="13" max="13" width="2.6328125" customWidth="1"/>
     <col min="14" max="14" width="20.6328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="2.6328125" customWidth="1"/>
@@ -1245,343 +2542,667 @@
   <sheetData>
     <row r="2" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="28" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="9"/>
+      <c r="K5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="O5" s="25" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="O5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="15"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="15"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="8"/>
+      <c r="P7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="17"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="17"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="17"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="17"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="17"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="17"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="23"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="11"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="17"/>
-      <c r="O12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="11"/>
+      <c r="O12" s="2"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="17"/>
-      <c r="O13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="11"/>
+      <c r="O13" s="2"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="24" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="10"/>
+      <c r="L15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
+      <c r="K16" s="10"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="15"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="7"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="15"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="2:13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="21"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="21"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="37">
+        <v>1</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="N24" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="37">
+        <v>2</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="37">
+        <v>3</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="37">
+        <v>4</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="37">
+        <v>5</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="37">
+        <v>6</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="37">
+        <v>7</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="37">
+        <v>1</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="37">
+        <v>2</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="37">
+        <v>3</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="37">
+        <v>5</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="37">
+        <v>6</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="37">
+        <v>7</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="37">
+        <v>8</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="43">
+        <v>9</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="29">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="K5:M5"/>
@@ -1596,5 +3217,1878 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="50.6328125" customWidth="1"/>
+    <col min="8" max="26" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="44"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="37">
+        <v>1</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="37">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="37">
+        <v>3</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="37">
+        <v>4</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="37">
+        <v>5</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="37">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="37">
+        <v>7</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="37">
+        <v>8</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="37">
+        <v>9</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="37"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="37">
+        <v>10</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
+        <v>11</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="37">
+        <v>12</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="37">
+        <v>13</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="37">
+        <v>14</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="37">
+        <v>15</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="37">
+        <v>16</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="37">
+        <v>17</v>
+      </c>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="44"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="37">
+        <v>1</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="37">
+        <v>2</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="37">
+        <v>3</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="37">
+        <v>4</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="37">
+        <v>5</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="37">
+        <v>6</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="37">
+        <v>7</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="37">
+        <v>8</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="37">
+        <v>9</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="37">
+        <v>10</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="37">
+        <v>11</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="37">
+        <v>12</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="37">
+        <v>13</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="37">
+        <v>14</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G53" s="37"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="37">
+        <v>15</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="37">
+        <v>16</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="37">
+        <v>17</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="37">
+        <v>18</v>
+      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="37">
+        <v>19</v>
+      </c>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="39"/>
+      <c r="E64" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="44"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="37">
+        <v>1</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="37"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="37">
+        <v>2</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="37">
+        <v>3</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="37">
+        <v>4</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="37">
+        <v>5</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="37">
+        <v>6</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="37">
+        <v>7</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="37">
+        <v>8</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="37">
+        <v>9</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="39"/>
+      <c r="E83" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" s="50"/>
+      <c r="G83" s="51"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="50"/>
+      <c r="G84" s="51"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="39"/>
+      <c r="E85" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="50"/>
+      <c r="G85" s="51"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="39"/>
+      <c r="E86" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="50"/>
+      <c r="G86" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="44"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="47"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G92" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="37">
+        <v>1</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="37">
+        <v>2</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="37">
+        <v>3</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="37">
+        <v>4</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="37">
+        <v>5</v>
+      </c>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="39"/>
+      <c r="E100" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100" s="50"/>
+      <c r="G100" s="51"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F101" s="50"/>
+      <c r="G101" s="51"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="39"/>
+      <c r="E102" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F102" s="50"/>
+      <c r="G102" s="51"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" s="39"/>
+      <c r="E103" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="50"/>
+      <c r="G103" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="44"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F104" s="50"/>
+      <c r="G104" s="51"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="47"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E109" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G109" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="37">
+        <v>1</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G110" s="37"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="37">
+        <v>2</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="37"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="37">
+        <v>3</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" s="37"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="37">
+        <v>4</v>
+      </c>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="37">
+        <v>5</v>
+      </c>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G107"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G90"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G9"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I44"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="45" width="3.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/設計書/NewsScrapingforSlack.xlsx
+++ b/設計書/NewsScrapingforSlack.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="70" windowWidth="21090" windowHeight="9640" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="70" windowWidth="17840" windowHeight="9640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="291">
   <si>
     <t>slack</t>
     <phoneticPr fontId="1"/>
@@ -185,19 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B.問い合わせ処理</t>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定期実行トリガ</t>
     <rPh sb="0" eb="2">
       <t>テイキ</t>
@@ -249,16 +236,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クエリ表示(slack)</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>結果取得(mysql)</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
+    <t>設定読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定読み込み(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事取得</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュトク</t>
@@ -266,42 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定読み込み</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定読み込み(mysql)</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記事取得</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記事加工</t>
     <rPh sb="0" eb="2">
       <t>キジ</t>
@@ -322,16 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結果記録</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取得結果表示(slack)</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
@@ -345,37 +305,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクレイピング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存用、表示用</t>
-    <rPh sb="0" eb="3">
-      <t>ホゾンヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライブラリ使用検討</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>log or table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>取得結果記録</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
@@ -385,23 +314,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ入力</t>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示用</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -413,10 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">slackbot </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジューラ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,10 +617,6 @@
     <rPh sb="3" eb="4">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>notnull</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -838,10 +742,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>web_site_infomation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイトID毎に行を追加。
 取得元ウェブサイトの基本情報を保持する。</t>
     <rPh sb="5" eb="6">
@@ -878,10 +778,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>notice_info</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自動通知、検索範囲に関する情報を設定する。</t>
     <rPh sb="0" eb="2">
       <t>ジドウ</t>
@@ -1159,19 +1055,6 @@
     <t>サムネイル保存先パス有無</t>
   </si>
   <si>
-    <t>記事情報を保存。</t>
-    <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各記事の操作状態を保存する。</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -1242,13 +1125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト定義テーブル</t>
-    <rPh sb="3" eb="5">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3_1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1321,10 +1197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>getScrapingSetting</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表示用/処理用/DB用</t>
     <rPh sb="0" eb="3">
       <t>ヒョウジヨウ</t>
@@ -1335,6 +1207,771 @@
     <rPh sb="10" eb="11">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLAlchemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件表示(slack)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示結果記録(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slackbot(入力受付)</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLAlchemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selenium/BeatifulSoup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得結果記録(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事取得(scraping)</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B.問合せ処理</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成順</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>site_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁</t>
+    <rPh sb="0" eb="1">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10桁の連番</t>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="1">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4桁の連番</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3桁の連番</t>
+  </si>
+  <si>
+    <t>3桁の連番</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定日</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>source_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit_post_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定日以前の記事を通知しない</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>limit_get_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新後既読フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_after_update_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事更新日</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事情報を保存。
+更新があった記事は</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定取得しdictで返却</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定値を元に呼び出すサブ関数をスイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scraping_by_itmedia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do_scraping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_scraing_site_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_news_to_save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_proc_log</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp_proc_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存用</t>
+    <rPh sb="0" eb="3">
+      <t>ホゾンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_news_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得結果一時保存</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_proc_log_to_save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4～6をループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理結果をslackに通知(1～8の概要)</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事一覧をtableに保存(from4)</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理内容をtableに保存(from5)</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp_term</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do_query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録用</t>
+    <rPh sb="0" eb="3">
+      <t>キロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_result_to_disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit_result_to_save</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示用</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save_disp_news</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disp_disp_result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常駐、コマンド受信</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド判定</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件表示(問合せ前)</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ発行</t>
+    <rPh sb="3" eb="5">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果を保存用に加工</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示内容を保存用に加工</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示した内容を記録logを漏らさない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示した結果を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/Esfahan/items/39509da435da4821cdc7</t>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python NewsGetProccess.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heroku scheduler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>随時追加（クラス単位）</t>
+    <rPh sb="0" eb="2">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C.自動通知処理</t>
+    <rPh sb="2" eb="4">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知条件読み込み(mysql)</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知定義テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジューラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heroku scheduler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get_notice_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creater_query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do_query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ処理と共通メソッド</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heroku ps:scale pbot=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python NewsNoticeProc.py</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SlackRespondProc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成順</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルゴリズムは後で詰める</t>
+    <rPh sb="7" eb="8">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→テーブル1つ追加する可能性あり</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>notice_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(NULL)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1342,7 +1979,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,6 +1999,39 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1418,7 +2088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1650,13 +2320,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1714,6 +2398,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,71 +2482,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2157,11 +2902,11 @@
   <sheetData>
     <row r="2" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -2186,23 +2931,23 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="9"/>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="O5" s="24" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="O5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -2219,10 +2964,10 @@
     </row>
     <row r="7" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
@@ -2230,7 +2975,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="9"/>
@@ -2238,7 +2983,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="46" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="9"/>
@@ -2246,87 +2991,87 @@
         <v>11</v>
       </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="46" t="s">
         <v>2</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="11"/>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="11"/>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="33"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="11"/>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="10"/>
-      <c r="L9" s="33"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="11"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="33"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="11"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="34"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="11"/>
       <c r="N10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="34"/>
+      <c r="P10" s="45"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
@@ -2341,8 +3086,8 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
@@ -2358,8 +3103,8 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
@@ -2375,8 +3120,8 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
@@ -2390,14 +3135,14 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="43" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="9"/>
@@ -2405,69 +3150,69 @@
         <v>26</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="41" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="30"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="30"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="30"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
@@ -2514,27 +3259,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q42"/>
+  <dimension ref="A2:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="15.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.6328125" customWidth="1"/>
     <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.6328125" customWidth="1"/>
     <col min="8" max="8" width="15.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" customWidth="1"/>
-    <col min="10" max="10" width="20.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" style="20" customWidth="1"/>
     <col min="11" max="11" width="2.6328125" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" style="20" customWidth="1"/>
     <col min="13" max="13" width="2.6328125" customWidth="1"/>
-    <col min="14" max="14" width="20.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6328125" style="20" customWidth="1"/>
     <col min="15" max="15" width="2.6328125" customWidth="1"/>
     <col min="16" max="16" width="15.6328125" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.6328125" customWidth="1"/>
@@ -2542,11 +3287,11 @@
   <sheetData>
     <row r="2" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -2561,6 +3306,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="9"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
@@ -2571,23 +3317,25 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="9"/>
-      <c r="K5" s="27" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="O5" s="24" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -2595,19 +3343,21 @@
         <v>16</v>
       </c>
       <c r="I6" s="9"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="55"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="9"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="8"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
@@ -2615,7 +3365,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="9"/>
@@ -2623,7 +3373,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="46" t="s">
         <v>0</v>
       </c>
       <c r="M7" s="9"/>
@@ -2631,103 +3381,105 @@
         <v>11</v>
       </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="46" t="s">
         <v>2</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="11"/>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="33"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="11"/>
       <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="10"/>
-      <c r="P8" s="33"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="2"/>
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="11"/>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="10"/>
-      <c r="L9" s="33"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="11"/>
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="10"/>
-      <c r="P9" s="33"/>
+      <c r="P9" s="44"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="2"/>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="11"/>
       <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="34"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="11"/>
       <c r="N10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="34"/>
+      <c r="P10" s="45"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="8"/>
       <c r="L11" s="4"/>
       <c r="M11" s="11"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="16"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
@@ -2735,16 +3487,18 @@
         <v>17</v>
       </c>
       <c r="I12" s="11"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="8"/>
       <c r="L12" s="4"/>
       <c r="M12" s="11"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
@@ -2752,16 +3506,18 @@
         <v>22</v>
       </c>
       <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="8"/>
       <c r="L13" s="4"/>
       <c r="M13" s="11"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
@@ -2769,20 +3525,22 @@
         <v>16</v>
       </c>
       <c r="I14" s="9"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="8"/>
       <c r="L14" s="4"/>
       <c r="M14" s="9"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="43" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="9"/>
@@ -2790,69 +3548,73 @@
         <v>26</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="41" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="9"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="30"/>
+      <c r="L16" s="41"/>
       <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="30"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="30"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
@@ -2860,10 +3622,11 @@
       <c r="I19" s="9"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="55"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2874,335 +3637,938 @@
       <c r="I20" s="15"/>
       <c r="J20" s="1"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="56"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="15"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="J22" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="40" t="s">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J22" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="37">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="I23" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="22">
+        <v>1</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="22">
+        <v>2</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" s="21">
+        <v>3</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22">
+        <v>3</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="21">
+        <v>4</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" s="22">
+        <v>4</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="21">
+        <v>5</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="22">
+        <v>5</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="21">
+        <v>6</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="22">
+        <v>6</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="21">
+        <v>7</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22">
+        <v>7</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="21">
+        <v>8</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22">
+        <v>8</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" s="62">
+        <v>9</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22">
+        <v>9</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="72"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" s="21">
+        <v>1</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" s="73"/>
+      <c r="L36" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" s="73"/>
+      <c r="N36" s="48"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="21">
+        <v>2</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="I37" s="21">
+        <v>2</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="21">
+        <v>3</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="I38" s="21">
+        <v>3</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="21">
+        <v>4</v>
+      </c>
+      <c r="C39" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="36"/>
-      <c r="N24" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="37">
+      <c r="D39" s="48"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="I39" s="21">
+        <v>4</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" s="21">
+        <v>5</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="I40" s="21">
+        <v>5</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21">
+        <v>6</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="65">
+        <v>6</v>
+      </c>
+      <c r="J41" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" s="69"/>
+      <c r="L41" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="21">
+        <v>7</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="I42" s="68">
+        <v>7</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="K42" s="69"/>
+      <c r="L42" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" s="21">
+        <v>8</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I43" s="68">
+        <v>8</v>
+      </c>
+      <c r="J43" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" s="69"/>
+      <c r="L43" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" s="23">
+        <v>9</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="F44" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" s="68">
+        <v>9</v>
+      </c>
+      <c r="J44" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="69"/>
+      <c r="L44" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" s="21">
+        <v>10</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="20"/>
+      <c r="I45" s="76">
+        <v>10</v>
+      </c>
+      <c r="J45" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="K45" s="69"/>
+      <c r="L45" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="I48" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="72"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" s="21">
+        <v>1</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="F49" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="I49" s="21">
+        <v>1</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="21">
         <v>2</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="37">
+      <c r="C50" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="F50" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="I50" s="21">
+        <v>2</v>
+      </c>
+      <c r="J50" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="L50" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="21">
         <v>3</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="37">
+      <c r="C51" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="F51" s="20"/>
+      <c r="I51" s="21">
+        <v>3</v>
+      </c>
+      <c r="J51" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="21">
         <v>4</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="37">
+      <c r="C52" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="F52" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I52" s="65">
+        <v>4</v>
+      </c>
+      <c r="J52" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="K52" s="66"/>
+      <c r="L52" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="21">
         <v>5</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="37">
+      <c r="C53" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="48"/>
+      <c r="F53" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="I53" s="68">
+        <v>5</v>
+      </c>
+      <c r="J53" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="K53" s="69"/>
+      <c r="L53" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" s="21">
         <v>6</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="37">
+      <c r="C54" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="48"/>
+      <c r="F54" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I54" s="68">
+        <v>6</v>
+      </c>
+      <c r="J54" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="K54" s="69"/>
+      <c r="L54" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>7</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="37">
-        <v>1</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="37">
-        <v>2</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="37">
-        <v>3</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="37">
-        <v>4</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="37">
+      <c r="B55" s="21">
+        <v>7</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="48"/>
+      <c r="F55" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55" s="68">
+        <v>7</v>
+      </c>
+      <c r="J55" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="K55" s="69"/>
+      <c r="L55" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>5</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="37">
-        <v>6</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="37">
-        <v>7</v>
-      </c>
-      <c r="C40" s="41" t="s">
+      <c r="B56" s="21">
+        <v>8</v>
+      </c>
+      <c r="C56" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="37">
+      <c r="D56" s="48"/>
+      <c r="F56" s="20"/>
+      <c r="I56" s="68">
         <v>8</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="43">
-        <v>9</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="42"/>
+      <c r="J56" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" s="69"/>
+      <c r="L56" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="J57" s="1"/>
+      <c r="L57"/>
+      <c r="N57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="C58"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="J58" s="1"/>
+      <c r="L58"/>
+      <c r="N58"/>
+      <c r="P58"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
+  <mergeCells count="98">
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="L52:N52"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
     <mergeCell ref="L15:L18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="K5:M5"/>
@@ -3214,6 +4580,25 @@
     <mergeCell ref="L7:L10"/>
     <mergeCell ref="P7:P10"/>
     <mergeCell ref="H15:H18"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3236,10 +4621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G114"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3247,1672 +4632,2020 @@
     <col min="1" max="1" width="5.6328125" customWidth="1"/>
     <col min="2" max="3" width="30.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="50.6328125" customWidth="1"/>
-    <col min="8" max="26" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="3.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="50.6328125" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" customWidth="1"/>
+    <col min="10" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="27" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="24"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>3</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <v>4</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
+        <v>5</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
+        <v>6</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
+        <v>7</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>8</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
+        <v>10</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
+        <v>11</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
+        <v>12</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
+        <v>13</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
+        <v>14</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>15</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
+        <v>16</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
+        <v>17</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>1</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="21">
+        <v>10</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>2</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <v>3</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>4</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
+        <v>5</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <v>6</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
+        <v>7</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
+        <v>8</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
+        <v>9</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
+        <v>10</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>11</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>12</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>13</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>14</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
+        <v>15</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
+        <v>16</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="21">
+        <v>17</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="21">
+        <v>18</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="21">
+        <v>19</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="60"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="60"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="60"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="24"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="J72" s="61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="21">
+        <v>1</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="21">
+        <v>4</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="21">
+        <v>2</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" s="21">
+        <v>255</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="21">
+        <v>3</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" s="21">
+        <v>255</v>
+      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="21">
+        <v>4</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="21">
+        <v>255</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="21">
+        <v>5</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="21">
+        <v>255</v>
+      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="21">
+        <v>6</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="21">
+        <v>255</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="21">
+        <v>7</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="21">
+        <v>3</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="21">
+        <v>8</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="21">
+        <v>9</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="21">
+        <v>10</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="21">
+        <v>11</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="51"/>
+      <c r="E86" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86" s="60"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" s="60"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="51"/>
+      <c r="E88" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" s="60"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="25"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="51"/>
+      <c r="E89" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="60"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="24"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="60"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="21">
+        <v>1</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E96" s="21">
+        <v>3</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>2</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="21">
+        <v>255</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="21">
+        <v>3</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="21">
+        <v>512</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="21">
+        <v>4</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G99" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="21">
+        <v>5</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103" s="51"/>
+      <c r="E103" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="60"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="25"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B104" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" s="60"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="25"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="44" t="s">
+      <c r="D105" s="51"/>
+      <c r="E105" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" s="60"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="25"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="51"/>
+      <c r="E106" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="60"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="24"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="49" t="s">
+      <c r="F107" s="60"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="25"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="56"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="57"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F112" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G112" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51" t="s">
+      <c r="H112" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="21">
+        <v>1</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E113" s="21">
+        <v>10</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="49" t="s">
+      <c r="G113" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="H113" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="21">
+        <v>2</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G114" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="21"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="21">
+        <v>3</v>
+      </c>
+      <c r="B115" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="52" t="s">
+      <c r="C115" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
-        <v>1</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
-        <v>2</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="37" t="b">
+      <c r="D115" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G115" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
-        <v>3</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="37" t="b">
+      <c r="H115" s="21"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="21">
+        <v>4</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
-        <v>4</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="H116" s="21"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="21">
         <v>5</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
-        <v>6</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
-        <v>7</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
-        <v>8</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
-        <v>9</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
-        <v>10</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
-        <v>11</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
-        <v>12</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="37">
-        <v>13</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="37">
-        <v>14</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="37">
-        <v>15</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
-        <v>16</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
-        <v>17</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="44"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
-        <v>1</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="37">
-        <v>2</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="37">
-        <v>3</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="37">
-        <v>4</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="37">
-        <v>5</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="37">
-        <v>6</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="37">
-        <v>7</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
-        <v>8</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="37">
-        <v>9</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="37">
-        <v>10</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="37">
-        <v>11</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="37">
-        <v>12</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="37">
-        <v>13</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="37">
-        <v>14</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="37"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="37">
-        <v>15</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="37">
-        <v>16</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="37">
-        <v>17</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="37">
-        <v>18</v>
-      </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="37">
-        <v>19</v>
-      </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="39"/>
-      <c r="E61" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="50"/>
-      <c r="G63" s="51"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="44"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="51"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="37">
-        <v>1</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" s="37"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="37">
-        <v>2</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="37">
-        <v>3</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="37">
-        <v>4</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="37">
-        <v>5</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="37">
-        <v>6</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="37">
-        <v>7</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="37">
-        <v>8</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G79" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="37">
-        <v>9</v>
-      </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="39"/>
-      <c r="E83" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="51"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="51"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="39"/>
-      <c r="E85" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="51"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="44"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="51"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="48"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E92" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="37">
-        <v>1</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="37">
-        <v>2</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="37">
-        <v>3</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="37">
-        <v>4</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" s="37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="37">
-        <v>5</v>
-      </c>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B100" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" s="50"/>
-      <c r="G100" s="51"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B101" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="51"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B102" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D102" s="39"/>
-      <c r="E102" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="51"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F103" s="50"/>
-      <c r="G103" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="44"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="50"/>
-      <c r="G104" s="51"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="46"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="47"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="48"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B109" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D109" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F109" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G109" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="37">
-        <v>1</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F110" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G110" s="37"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="37">
-        <v>2</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F111" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" s="37"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="37">
-        <v>3</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="F112" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" s="37"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="37">
-        <v>4</v>
-      </c>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="37">
-        <v>5</v>
-      </c>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G107"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G90"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G9"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H10"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B68:H69"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B92:H93"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B109:H110"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="B108:H108"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4940,17 +6673,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4958,49 +6691,49 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E13" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="54" t="s">
-        <v>188</v>
+      <c r="E14" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5008,54 +6741,54 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="F22" s="3" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -5063,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -5071,7 +6804,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/NewsScrapingforSlack.xlsx
+++ b/設計書/NewsScrapingforSlack.xlsx
@@ -4623,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
